--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2135.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2135.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.926181427511299</v>
+        <v>0.6193925142288208</v>
       </c>
       <c r="B1">
-        <v>3.289619370927958</v>
+        <v>1.410785675048828</v>
       </c>
       <c r="C1">
-        <v>1.29204557621968</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.8402569376255892</v>
+        <v>2.382034301757812</v>
       </c>
       <c r="E1">
-        <v>0.687054896863738</v>
+        <v>1.382242560386658</v>
       </c>
     </row>
   </sheetData>
